--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N2">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q2">
-        <v>0.09988027877022225</v>
+        <v>0.02326369514622222</v>
       </c>
       <c r="R2">
-        <v>0.8989225089320001</v>
+        <v>0.209373256316</v>
       </c>
       <c r="S2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="T2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q3">
         <v>0.5201407072648889</v>
@@ -632,10 +632,10 @@
         <v>4.681266365384</v>
       </c>
       <c r="S3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="T3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q4">
         <v>2.240942952332</v>
@@ -694,10 +694,10 @@
         <v>20.168486570988</v>
       </c>
       <c r="S4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="T4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
     </row>
   </sheetData>
